--- a/bitbucket-gitlab/bitbucket-to-gitlab.xlsx
+++ b/bitbucket-gitlab/bitbucket-to-gitlab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\bitbucket-gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0809BBE-0F17-4AF9-B350-0268D78DBCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E61B0-3706-43C4-ADCB-AC8F53C7A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>sr</t>
   </si>
@@ -36,29 +36,35 @@
     <t>gitlab_target_namespace</t>
   </si>
   <si>
-    <t>varun160799</t>
-  </si>
-  <si>
-    <t>python-private</t>
-  </si>
-  <si>
-    <t>you-dont-need-javascript</t>
-  </si>
-  <si>
-    <t>repository1699/python</t>
-  </si>
-  <si>
-    <t>repository1699</t>
-  </si>
-  <si>
     <t>workspace_id</t>
+  </si>
+  <si>
+    <t>anilgoudasb06</t>
+  </si>
+  <si>
+    <t>almatasks</t>
+  </si>
+  <si>
+    <t>app-n-pak</t>
+  </si>
+  <si>
+    <t>casa-build-utils</t>
+  </si>
+  <si>
+    <t>casaplotserver</t>
+  </si>
+  <si>
+    <t>casashell</t>
+  </si>
+  <si>
+    <t>repo-migration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,11 +79,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,25 +385,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -411,32 +412,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
